--- a/gd/副本系统/副本结算文档.xlsx
+++ b/gd/副本系统/副本结算文档.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\策划SVN\副本系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QAsvn\02.文档分析\副本系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" activeTab="3"/>
+    <workbookView xWindow="2340" yWindow="675" windowWidth="38400" windowHeight="19665"/>
   </bookViews>
   <sheets>
     <sheet name="对局结算" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,20 @@
     <sheet name="备忘" sheetId="6" r:id="rId4"/>
     <sheet name="自用" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="183">
   <si>
     <t>掉落时机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杂物：辅助时间观及经济系统货币产出的物品，为游戏增添故事感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备：玩家增强自身属性的基础部件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本基础奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落(金钱、物品）列表配置格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,30 +326,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此外玩家还可以支付不同量的金券（额度跟奖励一起配置）翻开另几张卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>翻开的卡牌，玩家可以获得奖励；展示的卡牌，玩家不能获得奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3）玩家翻开第一张牌后，倒计时5s若不继续翻牌则关闭界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）玩家不主动翻开任何卡牌，倒计时结束时会由系统自动翻开一张普通卡牌（翻开动画3秒）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）翻开普通卡牌获得奖励后，翻开其他卡牌展示剩余没有被获得的物品；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4）若所有卡片均被翻开则直接关闭界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副本ID_n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,14 +367,6 @@
   </si>
   <si>
     <t>结算规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本开启时完成对局掉落的计算（主要通过副本怪物的信息即可得到最终结果），副本完成后验证对局数与胜负等条件在副本结算时发放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本结算时根据玩家怪物剩余数量评定，给予玩家额外的奖励，即副本额外经验奖励和翻牌奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -564,10 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进本即消耗疲劳值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>具体有几个难度待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,10 +662,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本中的奖励都主要由对局掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,51 +690,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2.宝箱其实是对局完成后可得到的，其实是对局奖励的另一种方式（最后也是副本结算才给）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算时根据玩家怪物剩余数量和目标达成度等评定，给予玩家额外的奖励，翻牌、开宝箱都行呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标达成关系待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.记录对局完成方式（0或1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.对局掉落会显示，但在副本进行中不会给，只有在副本结算时才会给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定下副本基础结构后，决定数据包大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定翻牌可得的道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.副本进行中掉线，玩家掉线重连可继续副本，不会造成任何损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多手游都是进本消耗一部分，当副本成功后扣除所有，如果副本失败则不扣除</t>
+  </si>
+  <si>
+    <t>后半句语句是否不太通顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果验证出现了不一致的情况，如何处理？比如这个本不应该掉包子，结果掉了个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本中的奖励主要由对局掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算时根据玩家怪物剩余数量评定，给予玩家额外的奖励，即副本额外经验奖励和翻牌奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂物：辅助世界观及经济系统货币产出的物品，为游戏增添故事感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为安全性考虑，当配置的掉落数量max小于掉落数量min时，将掉落数量min取为固定值掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落数量中，0和不填都是视为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）若所有卡片均被翻开则直接关闭界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）玩家翻开第一张牌后，倒计时5s若不继续翻牌则展示剩余卡牌3s后关闭界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）玩家不主动翻开任何卡牌，倒计时10s结束后会由系统自动翻开第一张卡牌，后倒计时5s若玩家仍无任何操作则展示剩余卡牌3s后关闭界面；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局1A，2B,结果1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议调整一下目标达成关系的顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家怪物剩余个数（待定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每支付一次金钱可以翻开一张卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此外玩家还可以支付不同量的金钱（额度跟奖励一起配置）翻开另几张卡牌，每支付一次金钱可以翻开一张卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除非重登陆和服务器重启，否则全程不掉线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本开启时完成对局掉落的计算（主要通过副本怪物的信息即可得到最终结果），副本完成后验证对局数与胜负等条件，验证后奖励将在副本结算时发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.在副本结算时需要与服务端验证对局掉落，并按照最后结果给予副本掉落</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.道具均为副本结算时给予玩家，如果玩家中途退出，则无法获得副本额外奖励，只可获得玩家已打对局和已开宝箱的奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.宝箱其实是对局完成后可得到的，其实是对局奖励的另一种方式（最后也是副本结算才给）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本结算时根据玩家怪物剩余数量和目标达成度等评定，给予玩家额外的奖励，翻牌、开宝箱都行呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标达成关系待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.记录对局完成方式（0或1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.对局掉落会显示，但在副本进行中不会给，只有在副本结算时才会给</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定下副本基础结构后，决定数据包大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家怪物剩余个数（待定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定翻牌可得的道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.副本进行中掉线，玩家掉线重连可继续副本，不会造成任何损失</t>
+    <t>验证规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.若验证无误，则正常发放奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.若验证有违规情况，则显示检测到异常数据后强制该账号下线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.若检测到一账号3次违规则提示，检测到数据异常，有封号的风险哟！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.验证实际对局奖励是否在按玩家实际情况判定后对局掉落范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.验证按玩家实际情况判定后对局掉落是否在预期对局掉落范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.若检测到一账号5次违规则提示，检测到数据异常，封号啦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.道具均为副本结算时给予玩家，如果玩家主动点击退出退出副本，算为副本失败进行副本结算，即无法获得副本额外奖励，只可获得玩家已打对局和已开宝箱的奖励；若玩家结束进程下线重连则无任何奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进本消耗1点疲劳值，副本成功结算时消耗(全部疲劳值-1)；副本失败时，副本失败结算时消耗（通过对局数/全部对局数*(全部疲劳值-1)）（向上取整）的疲劳值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +849,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,13 +886,38 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -839,16 +930,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +1028,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -958,15 +1070,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>523261</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>66201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1001,13 +1113,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>123289</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47238</xdr:rowOff>
@@ -1044,13 +1156,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>221426</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
@@ -1062,8 +1174,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9010650" y="847725"/>
-          <a:ext cx="4926776" cy="5638800"/>
+          <a:off x="11525250" y="847725"/>
+          <a:ext cx="4860101" cy="5638800"/>
           <a:chOff x="2400300" y="714375"/>
           <a:chExt cx="4926776" cy="4610100"/>
         </a:xfrm>
@@ -1123,7 +1235,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1176,7 +1288,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
                   <a:t>进入副本</a:t>
                 </a:r>
               </a:p>
@@ -1253,7 +1365,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>预期对局掉落</a:t>
                 </a:r>
               </a:p>
@@ -1330,7 +1442,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
                   <a:t>副本掉落配置</a:t>
                 </a:r>
               </a:p>
@@ -1372,7 +1484,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
                   <a:t>对局刷怪配置</a:t>
                 </a:r>
               </a:p>
@@ -1503,7 +1615,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -1515,7 +1627,7 @@
                   <a:t>验证</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                  <a:rPr lang="zh-Hans" altLang="zh-Hans" sz="1100" dirty="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -1526,13 +1638,13 @@
                   </a:rPr>
                   <a:t>预期对局掉落</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:endParaRPr lang="zh-Hans" altLang="zh-Hans" dirty="0">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
               <a:p>
                 <a:pPr algn="l"/>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -1578,7 +1690,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="l"/>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -1618,7 +1730,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
                   <a:t>副本开启阶段</a:t>
                 </a:r>
               </a:p>
@@ -1660,7 +1772,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
                   <a:t>副本结束阶段</a:t>
                 </a:r>
               </a:p>
@@ -1702,7 +1814,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>添加副本掉落与翻牌奖励</a:t>
                 </a:r>
               </a:p>
@@ -1779,7 +1891,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
                   <a:t>玩家对局信息</a:t>
                 </a:r>
               </a:p>
@@ -1856,7 +1968,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
                   <a:t>玩家对局信息</a:t>
                 </a:r>
               </a:p>
@@ -1933,7 +2045,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>显示最终副本结算</a:t>
                 </a:r>
               </a:p>
@@ -2011,7 +2123,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2020,13 +2132,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
@@ -2038,8 +2150,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="781050" y="3181349"/>
-          <a:ext cx="7886700" cy="6924675"/>
+          <a:off x="3409950" y="3181349"/>
+          <a:ext cx="7781925" cy="6924675"/>
           <a:chOff x="38100" y="3190874"/>
           <a:chExt cx="7886700" cy="6924675"/>
         </a:xfrm>
@@ -2106,7 +2218,7 @@
               <a:p>
                 <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                  <a:rPr lang="zh-Hans" altLang="zh-Hans" sz="1100" dirty="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -2117,7 +2229,7 @@
                   </a:rPr>
                   <a:t>验证预期对局掉落</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:endParaRPr lang="zh-Hans" altLang="zh-Hans" dirty="0">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
@@ -2159,7 +2271,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>对局是否全胜</a:t>
                 </a:r>
               </a:p>
@@ -2277,7 +2389,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>给予所有成功对局奖励，显示退出</a:t>
                 </a:r>
               </a:p>
@@ -2319,7 +2431,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>是否完成全部对局</a:t>
                 </a:r>
               </a:p>
@@ -2437,15 +2549,15 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>验证后对局掉落</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1100" dirty="0"/>
                   <a:t>=</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>原预期对局掉落</a:t>
                 </a:r>
               </a:p>
@@ -2487,23 +2599,23 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>验证后对局掉落</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1100" dirty="0"/>
                   <a:t>=</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>（全部预期对局掉落 </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1100" dirty="0"/>
                   <a:t>- </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
                   <a:t>未完成对局预期掉落）</a:t>
                 </a:r>
               </a:p>
@@ -2551,7 +2663,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="l"/>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -2616,7 +2728,7 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0"/>
               <a:t>副本内宝箱是否全部开启</a:t>
             </a:r>
           </a:p>
@@ -2768,7 +2880,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:rPr lang="zh-Hans" altLang="zh-Hans" sz="1100" dirty="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -2780,7 +2892,7 @@
               <a:t>验证后对局掉落</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:rPr lang="en-US" altLang="zh-Hans" sz="1100" dirty="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -2792,7 +2904,7 @@
               <a:t>=</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:rPr lang="zh-Hans" altLang="zh-Hans" sz="1100" dirty="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -2804,7 +2916,7 @@
               <a:t>（全部预期对局掉落 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:rPr lang="en-US" altLang="zh-Hans" sz="1100" dirty="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -2816,7 +2928,7 @@
               <a:t>- </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:rPr lang="zh-Hans" altLang="zh-Hans" sz="1100" dirty="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -2828,7 +2940,7 @@
               <a:t>未</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -2840,7 +2952,7 @@
               <a:t>开启宝箱</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:rPr lang="zh-Hans" altLang="zh-Hans" sz="1100" dirty="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -2851,7 +2963,7 @@
               </a:rPr>
               <a:t>预期掉落）</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:endParaRPr lang="zh-Hans" altLang="zh-Hans" dirty="0">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -2900,13 +3012,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -2950,13 +3062,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -2997,10 +3109,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
             <a:t>X</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3012,7 +3124,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="办公室">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3050,7 +3162,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="办公室">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3122,7 +3234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="办公室">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3272,328 +3384,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="C91" zoomScale="126" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="12.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9" style="2"/>
-    <col min="15" max="16" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="35.375" style="2" customWidth="1"/>
+    <col min="2" max="5" width="8.875" style="2"/>
+    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.875" style="2"/>
+    <col min="16" max="17" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>153</v>
-      </c>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
       <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="17.100000000000001" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="27" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E8" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D13" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C15" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="D21" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="D22" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="D23" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="D24" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C26" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="E29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="F31" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="F32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E35" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C37" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C38" s="4"/>
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D39" s="1"/>
+      <c r="E39" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D40" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E41" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D43" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C11" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D24" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="4"/>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C28" s="1"/>
-      <c r="D28" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C29" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D30" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C32" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D33" s="2" t="s">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C42" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C46" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D47" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D49" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -3601,20 +3787,12 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D50" s="3" t="s">
-        <v>106</v>
-      </c>
+    </row>
+    <row r="50" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -3622,20 +3800,12 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D51" s="3" t="s">
-        <v>107</v>
-      </c>
+    </row>
+    <row r="51" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -3643,36 +3813,20 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="3"/>
+    </row>
+    <row r="52" spans="4:21" x14ac:dyDescent="0.15">
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D53" s="3"/>
+    </row>
+    <row r="53" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D53" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -3683,127 +3837,48 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C54" s="1" t="s">
-        <v>142</v>
-      </c>
+    </row>
+    <row r="54" spans="4:21" x14ac:dyDescent="0.15">
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D56" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D57" s="3" t="s">
+    </row>
+    <row r="55" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="57" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D57" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C59" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" s="3"/>
+    </row>
+    <row r="58" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E58" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E59" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E60" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -3811,13 +3886,20 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C61" s="3"/>
-      <c r="D61" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E61" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -3825,12 +3907,19 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E62" s="3" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3839,10 +3928,20 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+    </row>
+    <row r="63" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E63" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -3850,634 +3949,828 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:20" ht="30" x14ac:dyDescent="0.15">
-      <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+    </row>
+    <row r="64" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E64" s="3"/>
-      <c r="F64" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+    </row>
+    <row r="65" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D65" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="11">
-        <v>1</v>
-      </c>
-      <c r="G65" s="11">
-        <v>44</v>
-      </c>
-      <c r="H65" s="11">
-        <v>55</v>
-      </c>
-      <c r="I65" s="11">
-        <v>10</v>
-      </c>
-      <c r="J65" s="11">
-        <v>10</v>
-      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C66" s="3"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="11">
-        <v>2</v>
-      </c>
-      <c r="G66" s="11">
-        <v>48</v>
-      </c>
-      <c r="H66" s="11">
-        <v>66</v>
-      </c>
-      <c r="I66" s="11">
-        <v>10</v>
-      </c>
-      <c r="J66" s="11">
-        <v>11</v>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+    </row>
+    <row r="66" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E66" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="11">
-        <v>3</v>
-      </c>
-      <c r="G67" s="11">
-        <v>52</v>
-      </c>
-      <c r="H67" s="11">
-        <v>77</v>
-      </c>
-      <c r="I67" s="11">
-        <v>10</v>
-      </c>
-      <c r="J67" s="11">
-        <v>12</v>
-      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+    </row>
+    <row r="67" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="11">
-        <v>4</v>
-      </c>
-      <c r="G68" s="11">
-        <v>59</v>
-      </c>
-      <c r="H68" s="11">
-        <v>88</v>
-      </c>
-      <c r="I68" s="11">
-        <v>10</v>
-      </c>
-      <c r="J68" s="11">
-        <v>12</v>
-      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E68" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+    </row>
+    <row r="69" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E69" s="3"/>
-      <c r="F69" s="11">
-        <v>5</v>
-      </c>
-      <c r="G69" s="11">
-        <v>65</v>
-      </c>
-      <c r="H69" s="11">
-        <v>99</v>
-      </c>
-      <c r="I69" s="11">
-        <v>10</v>
-      </c>
-      <c r="J69" s="11">
-        <v>12</v>
-      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+    </row>
+    <row r="70" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D70" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="11">
-        <v>6</v>
-      </c>
-      <c r="G70" s="11">
-        <v>71</v>
-      </c>
-      <c r="H70" s="11">
-        <v>100</v>
-      </c>
-      <c r="I70" s="11">
-        <v>10</v>
-      </c>
-      <c r="J70" s="11">
-        <v>80</v>
-      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D72" s="3"/>
+      <c r="E72" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D75" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="4:21" ht="30" x14ac:dyDescent="0.15">
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+      <c r="G75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D76" s="2" t="s">
+    </row>
+    <row r="76" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="11">
+        <v>1</v>
+      </c>
+      <c r="H76" s="11">
+        <v>44</v>
+      </c>
+      <c r="I76" s="11">
+        <v>55</v>
+      </c>
+      <c r="J76" s="11">
+        <v>10</v>
+      </c>
+      <c r="K76" s="11">
+        <v>10</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="11">
+        <v>2</v>
+      </c>
+      <c r="H77" s="11">
+        <v>48</v>
+      </c>
+      <c r="I77" s="11">
+        <v>66</v>
+      </c>
+      <c r="J77" s="11">
+        <v>10</v>
+      </c>
+      <c r="K77" s="11">
+        <v>11</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="11">
+        <v>3</v>
+      </c>
+      <c r="H78" s="11">
+        <v>52</v>
+      </c>
+      <c r="I78" s="11">
+        <v>77</v>
+      </c>
+      <c r="J78" s="11">
+        <v>10</v>
+      </c>
+      <c r="K78" s="11">
+        <v>12</v>
+      </c>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="11">
+        <v>4</v>
+      </c>
+      <c r="H79" s="11">
+        <v>59</v>
+      </c>
+      <c r="I79" s="11">
+        <v>88</v>
+      </c>
+      <c r="J79" s="11">
+        <v>10</v>
+      </c>
+      <c r="K79" s="11">
+        <v>12</v>
+      </c>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="11">
+        <v>5</v>
+      </c>
+      <c r="H80" s="11">
+        <v>65</v>
+      </c>
+      <c r="I80" s="11">
+        <v>99</v>
+      </c>
+      <c r="J80" s="11">
+        <v>10</v>
+      </c>
+      <c r="K80" s="11">
+        <v>12</v>
+      </c>
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="11">
+        <v>6</v>
+      </c>
+      <c r="H81" s="11">
+        <v>71</v>
+      </c>
+      <c r="I81" s="11">
+        <v>100</v>
+      </c>
+      <c r="J81" s="11">
+        <v>10</v>
+      </c>
+      <c r="K81" s="11">
+        <v>80</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="F84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="E86" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="E87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L76" s="2" t="s">
+    </row>
+    <row r="88" spans="3:23" ht="60" x14ac:dyDescent="0.15">
+      <c r="C88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H88" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G77" s="10" t="s">
+      <c r="I88" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="J88" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="N88" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M77" s="13" t="s">
+      <c r="O88" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N77" s="13" t="s">
+      <c r="P88" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O77" s="13" t="s">
+      <c r="Q88" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P77" s="13" t="s">
+    </row>
+    <row r="89" spans="3:23" ht="33" x14ac:dyDescent="0.15">
+      <c r="E89" s="14"/>
+      <c r="F89" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="78" spans="2:16" ht="33" x14ac:dyDescent="0.15">
-      <c r="D78" s="14"/>
-      <c r="E78" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78" s="17" t="s">
+      <c r="H89" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="I89" s="17">
+        <v>0</v>
+      </c>
+      <c r="J89" s="17">
+        <v>2</v>
+      </c>
+      <c r="M89" s="14"/>
+      <c r="N89" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G78" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="H78" s="17">
-        <v>0</v>
-      </c>
-      <c r="I78" s="17">
+      <c r="O89" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P89" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="E90" s="14"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H90" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="I90" s="17">
+        <v>1</v>
+      </c>
+      <c r="J90" s="17">
+        <v>10</v>
+      </c>
+      <c r="M90" s="14"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P90" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="11">
         <v>2</v>
       </c>
-      <c r="L78" s="14"/>
-      <c r="M78" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N78" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O78" s="11">
+    </row>
+    <row r="91" spans="3:23" ht="33" x14ac:dyDescent="0.15">
+      <c r="E91" s="14"/>
+      <c r="F91" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" s="21">
         <v>1</v>
       </c>
-      <c r="P78" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D79" s="14"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G79" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="H79" s="17">
+      <c r="I91" s="17">
         <v>1</v>
       </c>
-      <c r="I79" s="17">
+      <c r="J91" s="17">
+        <v>2</v>
+      </c>
+      <c r="M91" s="14"/>
+      <c r="N91" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O91" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P91" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="E92" s="14"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I92" s="17">
+        <v>1</v>
+      </c>
+      <c r="J92" s="17">
+        <v>5</v>
+      </c>
+      <c r="M92" s="14"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P92" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="E93" s="14"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H93" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1</v>
+      </c>
+      <c r="J93" s="5">
+        <v>1</v>
+      </c>
+      <c r="M93" s="14"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P93" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="11">
         <v>10</v>
       </c>
-      <c r="L79" s="14"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O79" s="11">
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="N94" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P94" s="5">
         <v>1</v>
       </c>
-      <c r="P79" s="11">
+      <c r="Q94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P95" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="2:16" ht="33" x14ac:dyDescent="0.15">
-      <c r="D80" s="14"/>
-      <c r="E80" s="20" t="s">
+      <c r="Q95" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D96" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F80" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G80" s="21">
-        <v>1</v>
-      </c>
-      <c r="H80" s="17">
-        <v>1</v>
-      </c>
-      <c r="I80" s="17">
-        <v>2</v>
-      </c>
-      <c r="L80" s="14"/>
-      <c r="M80" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N80" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="O80" s="11">
-        <v>1</v>
-      </c>
-      <c r="P80" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D81" s="14"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G81" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="H81" s="17">
-        <v>1</v>
-      </c>
-      <c r="I81" s="17">
-        <v>5</v>
-      </c>
-      <c r="L81" s="14"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O81" s="11">
-        <v>1</v>
-      </c>
-      <c r="P81" s="11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D82" s="14"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G82" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1</v>
-      </c>
-      <c r="L82" s="14"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O82" s="11">
-        <v>2</v>
-      </c>
-      <c r="P82" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="M83" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="N83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="O83" s="5">
-        <v>1</v>
-      </c>
-      <c r="P83" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="O84" s="5">
-        <v>2</v>
-      </c>
-      <c r="P84" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="C85" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D86" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D87" s="7"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+    </row>
+    <row r="97" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" s="28"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="31"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="31"/>
+      <c r="R97" s="31"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A98" s="26"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="12.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="44" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="2"/>
+    <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="12" width="8.875" style="2"/>
+    <col min="13" max="13" width="12.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C4" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.15">
+      <c r="D9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C7" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.15">
-      <c r="C9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>140</v>
+      <c r="F9" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>64</v>
+        <v>130</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="11">
+        <v>62</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="2:13" ht="17.100000000000001" x14ac:dyDescent="0.15">
+      <c r="D10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="F10" s="11">
         <v>10</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="J10" s="5"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:13" ht="17.100000000000001" x14ac:dyDescent="0.15">
+      <c r="D11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="11">
         <v>88</v>
       </c>
-      <c r="E11" s="11">
+      <c r="F11" s="11">
         <v>12</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C12" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="J11" s="5"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" ht="17.100000000000001" x14ac:dyDescent="0.15">
+      <c r="D12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="11">
         <v>99</v>
       </c>
-      <c r="E12" s="11">
+      <c r="F12" s="11">
         <v>12</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -4485,281 +4778,331 @@
       <c r="I12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="17.100000000000001" x14ac:dyDescent="0.15">
+      <c r="D13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="11">
         <v>100</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F13" s="11">
         <v>80</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>4</v>
       </c>
-      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C17" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C18" s="2" t="s">
-        <v>164</v>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D17" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D20" s="25">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="G20" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C20" s="25">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C21" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="3"/>
+      <c r="G21" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D23" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C24" s="2" t="s">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="D25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="K25" s="13" t="s">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="L25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="N25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="O25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.15">
-      <c r="C26" s="14"/>
-      <c r="D26" s="10" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D26" s="14"/>
       <c r="E26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="G26" s="15"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="16" t="s">
+      <c r="H26" s="15"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>1</v>
       </c>
-      <c r="N26" s="11">
+      <c r="O26" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="C27" s="14"/>
-      <c r="D27" s="17" t="s">
-        <v>67</v>
-      </c>
+    <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+      <c r="D27" s="14"/>
       <c r="E27" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="G27" s="12"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16" t="s">
+      <c r="H27" s="12"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="11">
+        <v>1</v>
+      </c>
+      <c r="O27" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+      <c r="D28" s="14"/>
+      <c r="E28" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="11">
-        <v>1</v>
-      </c>
-      <c r="N27" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="C28" s="14"/>
-      <c r="D28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="16" t="s">
+      <c r="M28" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="11">
-        <v>1</v>
       </c>
       <c r="N28" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C29" s="14"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="12"/>
+      <c r="O28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="11">
+      <c r="H29" s="12"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="11">
         <v>1</v>
       </c>
-      <c r="N29" s="11">
+      <c r="O29" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C30" s="14"/>
-      <c r="D30" s="7"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D30" s="14"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="11">
+      <c r="H30" s="7"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="11">
         <v>2</v>
       </c>
-      <c r="N30" s="11">
+      <c r="O30" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C31" s="14"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="12"/>
+    <row r="31" spans="1:15" ht="17.100000000000001" x14ac:dyDescent="0.15">
+      <c r="D31" s="14"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D33" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D34" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C33" s="2" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C34" s="3" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A36" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D37" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C35" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C36" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C37" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C38" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C39" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C41" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4771,17 +5114,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="34.625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4792,40 +5142,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4845,11 +5195,11 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4871,7 +5221,7 @@
     </row>
     <row r="2" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -4886,7 +5236,7 @@
     </row>
     <row r="3" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -4906,7 +5256,7 @@
     </row>
     <row r="4" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4926,7 +5276,7 @@
     </row>
     <row r="5" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -4945,7 +5295,7 @@
     </row>
     <row r="6" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -4964,7 +5314,7 @@
     </row>
     <row r="7" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -4983,7 +5333,7 @@
     </row>
     <row r="8" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E8" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -5002,7 +5352,7 @@
     </row>
     <row r="9" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -5022,7 +5372,7 @@
     <row r="10" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5043,7 +5393,7 @@
     <row r="11" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5063,7 +5413,7 @@
     </row>
     <row r="12" spans="2:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D12" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5084,7 +5434,7 @@
     </row>
     <row r="14" spans="2:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5098,28 +5448,28 @@
     <row r="15" spans="2:20" ht="105" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="F15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="15"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:20" ht="33.950000000000003" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="17" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
@@ -5137,10 +5487,10 @@
       <c r="I16" s="12"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="33.950000000000003" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D17" s="11">
         <v>10</v>
@@ -5161,7 +5511,7 @@
     <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D18" s="11">
         <v>77</v>
@@ -5182,7 +5532,7 @@
     <row r="19" spans="2:10" ht="33" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="20" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D19" s="11">
         <v>88</v>
@@ -5203,7 +5553,7 @@
     <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="20" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D20" s="11">
         <v>99</v>
@@ -5224,7 +5574,7 @@
     <row r="21" spans="2:10" ht="33" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D21" s="11">
         <v>100</v>
@@ -5245,7 +5595,7 @@
     <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -5258,7 +5608,7 @@
     <row r="23" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -5271,7 +5621,7 @@
     <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>

--- a/gd/副本系统/副本结算文档.xlsx
+++ b/gd/副本系统/副本结算文档.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QAsvn\02.文档分析\副本系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\策划SVN\副本系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
   <si>
     <t>掉落时机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,63 +785,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>此外玩家还可以支付不同量的金钱（额度跟奖励一起配置）翻开另几张卡牌，每支付一次金钱可以翻开一张卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除非重登陆和服务器重启，否则全程不掉线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本开启时完成对局掉落的计算（主要通过副本怪物的信息即可得到最终结果），副本完成后验证对局数与胜负等条件，验证后奖励将在副本结算时发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.在副本结算时需要与服务端验证对局掉落，并按照最后结果给予副本掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.若验证无误，则正常发放奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.验证实际对局奖励是否在按玩家实际情况判定后对局掉落范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.验证按玩家实际情况判定后对局掉落是否在预期对局掉落范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.道具均为副本结算时给予玩家，如果玩家主动点击退出退出副本，算为副本失败进行副本结算，即无法获得副本额外奖励，只可获得玩家已打对局和已开宝箱的奖励；若玩家结束进程下线重连则无任何奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进本消耗1点疲劳值，副本成功结算时消耗(全部疲劳值-1)；副本失败时，副本失败结算时消耗（通过对局数/全部对局数*(全部疲劳值-1)）（向上取整）的疲劳值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>每支付一次金钱可以翻开一张卡牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此外玩家还可以支付不同量的金钱（额度跟奖励一起配置）翻开另几张卡牌，每支付一次金钱可以翻开一张卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除非重登陆和服务器重启，否则全程不掉线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本开启时完成对局掉落的计算（主要通过副本怪物的信息即可得到最终结果），副本完成后验证对局数与胜负等条件，验证后奖励将在副本结算时发放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.在副本结算时需要与服务端验证对局掉落，并按照最后结果给予副本掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.若验证无误，则正常发放奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.若验证有违规情况，则显示检测到异常数据后强制该账号下线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.若检测到一账号3次违规则提示，检测到数据异常，有封号的风险哟！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.验证实际对局奖励是否在按玩家实际情况判定后对局掉落范围内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.验证按玩家实际情况判定后对局掉落是否在预期对局掉落范围内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.若检测到一账号5次违规则提示，检测到数据异常，封号啦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.道具均为副本结算时给予玩家，如果玩家主动点击退出退出副本，算为副本失败进行副本结算，即无法获得副本额外奖励，只可获得玩家已打对局和已开宝箱的奖励；若玩家结束进程下线重连则无任何奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进本消耗1点疲劳值，副本成功结算时消耗(全部疲劳值-1)；副本失败时，副本失败结算时消耗（通过对局数/全部对局数*(全部疲劳值-1)）（向上取整）的疲劳值</t>
+    <t>2.若验证有违规情况，则显示检测到异常数据后强制该账号下线，并记录该账号的异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.运营同事决定封号不</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3384,10 +3380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C91" zoomScale="126" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="126" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3439,7 +3435,7 @@
         <v>83</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -3484,12 +3480,12 @@
         <v>155</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D13" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -3527,7 +3523,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="C15" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -3539,7 +3535,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="C16" s="28"/>
       <c r="D16" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -3550,7 +3546,7 @@
     <row r="17" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C17" s="28"/>
       <c r="D17" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -3560,7 +3556,7 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -3578,7 +3574,7 @@
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D21" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -3595,7 +3591,7 @@
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D22" s="28" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -3612,7 +3608,7 @@
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D23" s="28" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -3627,131 +3623,127 @@
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="D24" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C26" s="4" t="s">
-        <v>2</v>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="D27" s="3" t="s">
-        <v>6</v>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E28" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E29" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E30" s="2" t="s">
-        <v>7</v>
+      <c r="F30" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.15">
       <c r="F31" s="2" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.15">
       <c r="F32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E35" s="2" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E34" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C37" s="4" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C36" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C38" s="4"/>
-      <c r="D38" s="1" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C37" s="4"/>
+      <c r="D37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D39" s="1"/>
-      <c r="E39" s="2" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D38" s="1"/>
+      <c r="E38" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D40" s="1" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D39" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E41" s="2" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E40" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="26" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D43" s="1" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D42" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E44" s="2" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E43" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F46" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E47" s="3" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3762,23 +3754,23 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -3791,7 +3783,7 @@
     <row r="50" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -3802,11 +3794,7 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="3"/>
+      <c r="F51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -3815,7 +3803,13 @@
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D52" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -3824,24 +3818,20 @@
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D53" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
     </row>
     <row r="54" spans="4:21" x14ac:dyDescent="0.15">
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -3849,35 +3839,45 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+    <row r="56" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D56" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="57" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D57" s="1" t="s">
-        <v>131</v>
+      <c r="E57" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E58" s="3" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E59" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
     </row>
     <row r="60" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E60" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="61" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E61" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="62" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E62" s="3" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3939,9 +3939,7 @@
       <c r="U62" s="3"/>
     </row>
     <row r="63" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E63" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -3960,6 +3958,9 @@
       <c r="U63" s="3"/>
     </row>
     <row r="64" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D64" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3979,16 +3980,9 @@
       <c r="U64" s="3"/>
     </row>
     <row r="65" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="E65" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -4002,8 +3996,13 @@
     </row>
     <row r="66" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E66" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -4016,11 +4015,11 @@
       <c r="U66" s="3"/>
     </row>
     <row r="67" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E67" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -4036,12 +4035,9 @@
       <c r="U67" s="3"/>
     </row>
     <row r="68" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E68" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="E68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4056,27 +4052,24 @@
       <c r="U68" s="3"/>
     </row>
     <row r="69" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D69" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
     </row>
     <row r="70" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D70" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -4088,8 +4081,8 @@
     </row>
     <row r="71" spans="4:21" x14ac:dyDescent="0.15">
       <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
-        <v>122</v>
+      <c r="E71" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4102,10 +4095,10 @@
     </row>
     <row r="72" spans="4:21" x14ac:dyDescent="0.15">
       <c r="D72" s="3"/>
-      <c r="E72" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -4117,9 +4110,6 @@
     <row r="73" spans="4:21" x14ac:dyDescent="0.15">
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -4128,35 +4118,45 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="4:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:21" ht="30" x14ac:dyDescent="0.15">
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="4:21" ht="30" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:21" x14ac:dyDescent="0.15">
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>21</v>
+      <c r="G75" s="11">
+        <v>1</v>
+      </c>
+      <c r="H75" s="11">
+        <v>44</v>
+      </c>
+      <c r="I75" s="11">
+        <v>55</v>
+      </c>
+      <c r="J75" s="11">
+        <v>10</v>
+      </c>
+      <c r="K75" s="11">
+        <v>10</v>
       </c>
       <c r="M75" s="3"/>
     </row>
@@ -4165,19 +4165,19 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
       <c r="G76" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="11">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I76" s="11">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J76" s="11">
         <v>10</v>
       </c>
       <c r="K76" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M76" s="3"/>
     </row>
@@ -4186,19 +4186,19 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
       <c r="G77" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H77" s="11">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I77" s="11">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J77" s="11">
         <v>10</v>
       </c>
       <c r="K77" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M77" s="3"/>
     </row>
@@ -4207,13 +4207,13 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
       <c r="G78" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" s="11">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I78" s="11">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J78" s="11">
         <v>10</v>
@@ -4228,13 +4228,13 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
       <c r="G79" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H79" s="11">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I79" s="11">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="J79" s="11">
         <v>10</v>
@@ -4249,49 +4249,42 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
       <c r="G80" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H80" s="11">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I80" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J80" s="11">
         <v>10</v>
       </c>
       <c r="K80" s="11">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="11">
-        <v>6</v>
-      </c>
-      <c r="H81" s="11">
-        <v>71</v>
-      </c>
-      <c r="I81" s="11">
-        <v>100</v>
-      </c>
-      <c r="J81" s="11">
-        <v>10</v>
-      </c>
-      <c r="K81" s="11">
-        <v>80</v>
-      </c>
+      <c r="G81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3" t="s">
-        <v>159</v>
+      <c r="G82" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4300,28 +4293,26 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="D83" s="3"/>
-      <c r="E83" s="4"/>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="F83" s="3"/>
-      <c r="G83" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="E85" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -4329,167 +4320,182 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="E86" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="E87" s="2" t="s">
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="E86" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M87" s="2" t="s">
+      <c r="M86" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="3:23" ht="60" x14ac:dyDescent="0.15">
-      <c r="C88" s="2" t="s">
+    <row r="87" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+      <c r="C87" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F87" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="H87" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="I87" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J87" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N88" s="13" t="s">
+      <c r="N87" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O88" s="13" t="s">
+      <c r="O87" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P88" s="13" t="s">
+      <c r="P87" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q88" s="13" t="s">
+      <c r="Q87" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="3:23" ht="33" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" ht="33" x14ac:dyDescent="0.15">
+      <c r="E88" s="14"/>
+      <c r="F88" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="I88" s="17">
+        <v>0</v>
+      </c>
+      <c r="J88" s="17">
+        <v>2</v>
+      </c>
+      <c r="M88" s="14"/>
+      <c r="N88" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O88" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P88" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="E89" s="14"/>
-      <c r="F89" s="17" t="s">
-        <v>99</v>
-      </c>
+      <c r="F89" s="20"/>
       <c r="G89" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" s="19">
-        <v>0.7</v>
+        <v>39</v>
+      </c>
+      <c r="H89" s="21">
+        <v>0.8</v>
       </c>
       <c r="I89" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M89" s="14"/>
-      <c r="N89" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="N89" s="16"/>
       <c r="O89" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P89" s="11">
         <v>1</v>
       </c>
       <c r="Q89" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="33" x14ac:dyDescent="0.15">
       <c r="E90" s="14"/>
-      <c r="F90" s="20"/>
+      <c r="F90" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="G90" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H90" s="21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I90" s="17">
         <v>1</v>
       </c>
       <c r="J90" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M90" s="14"/>
-      <c r="N90" s="16"/>
+      <c r="N90" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="O90" s="16" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="P90" s="11">
         <v>1</v>
       </c>
       <c r="Q90" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="3:23" ht="33" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="E91" s="14"/>
-      <c r="F91" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="F91" s="20"/>
       <c r="G91" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H91" s="21">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I91" s="17">
         <v>1</v>
       </c>
       <c r="J91" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M91" s="14"/>
-      <c r="N91" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="N91" s="16"/>
       <c r="O91" s="16" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="P91" s="11">
         <v>1</v>
       </c>
       <c r="Q91" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="E92" s="14"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="I92" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="E92" s="14"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="I92" s="17">
+      <c r="J92" s="5">
         <v>1</v>
-      </c>
-      <c r="J92" s="17">
-        <v>5</v>
       </c>
       <c r="M92" s="14"/>
       <c r="N92" s="16"/>
@@ -4497,141 +4503,114 @@
         <v>44</v>
       </c>
       <c r="P92" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q92" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="N93" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P93" s="5">
         <v>1</v>
       </c>
-      <c r="Q92" s="11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="E93" s="14"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H93" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="I93" s="5">
+      <c r="Q93" s="5">
         <v>1</v>
       </c>
-      <c r="J93" s="5">
-        <v>1</v>
-      </c>
-      <c r="M93" s="14"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P93" s="11">
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P94" s="5">
         <v>2</v>
       </c>
-      <c r="Q93" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="N94" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="O94" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P94" s="5">
-        <v>1</v>
-      </c>
       <c r="Q94" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D95" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
       <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
+      <c r="L95" s="15"/>
       <c r="M95" s="7"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="P95" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q95" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="D96" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+    </row>
+    <row r="96" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" s="28"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="31"/>
+      <c r="R96" s="31"/>
       <c r="S96" s="7"/>
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
       <c r="W96" s="7"/>
     </row>
-    <row r="97" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E97" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F97" s="28"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="32"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31"/>
-      <c r="P97" s="31"/>
-      <c r="Q97" s="31"/>
-      <c r="R97" s="31"/>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A97" s="26"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
       <c r="S97" s="7"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
       <c r="W97" s="7"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A98" s="26"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4645,8 +4624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:Q40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5000,7 +4979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D31" s="14"/>
       <c r="E31" s="18"/>
       <c r="F31" s="12"/>
@@ -5029,10 +5008,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>169</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -5128,7 +5107,7 @@
   <sheetData>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/gd/副本系统/副本结算文档.xlsx
+++ b/gd/副本系统/副本结算文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="675" windowWidth="38400" windowHeight="19665"/>
+    <workbookView xWindow="2340" yWindow="675" windowWidth="38400" windowHeight="19665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对局结算" sheetId="1" r:id="rId1"/>
@@ -698,10 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本结算时根据玩家怪物剩余数量和目标达成度等评定，给予玩家额外的奖励，翻牌、开宝箱都行呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标达成关系待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,6 +834,10 @@
   </si>
   <si>
     <t>3.运营同事决定封号不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算时根据副本最后一对局玩家怪物剩余数量和目标达成度等评定，给予玩家额外的奖励，翻牌、开宝箱都行呢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +890,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,6 +913,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -945,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,6 +1050,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3382,7 +3391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="126" workbookViewId="0">
+    <sheetView topLeftCell="C76" zoomScale="126" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -3429,13 +3438,13 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -3455,14 +3464,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
@@ -3477,15 +3486,15 @@
     </row>
     <row r="12" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D13" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -3523,7 +3532,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="C15" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -3535,7 +3544,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="C16" s="28"/>
       <c r="D16" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -3546,7 +3555,7 @@
     <row r="17" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C17" s="28"/>
       <c r="D17" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -3556,7 +3565,7 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -3574,7 +3583,7 @@
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D21" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -3591,7 +3600,7 @@
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D22" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -3608,7 +3617,7 @@
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D23" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -3650,7 +3659,7 @@
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.15">
       <c r="F30" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.15">
@@ -3702,7 +3711,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>137</v>
@@ -4270,7 +4279,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -4284,7 +4293,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
       <c r="G82" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4566,10 +4575,10 @@
     </row>
     <row r="96" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="31"/>
@@ -4624,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4664,7 +4673,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
@@ -4784,25 +4793,34 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="D17" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="D17" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
@@ -5008,10 +5026,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -5029,7 +5047,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D38" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5047,7 +5065,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D39" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -5065,7 +5083,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D40" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -5107,7 +5125,7 @@
   <sheetData>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5134,7 +5152,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
@@ -5144,17 +5162,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5445,7 +5463,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:20" ht="33.950000000000003" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:20" ht="33" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="17" t="s">
         <v>101</v>
@@ -5466,7 +5484,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" ht="33.950000000000003" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="33" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="17" t="s">
         <v>104</v>

--- a/gd/副本系统/副本结算文档.xlsx
+++ b/gd/副本系统/副本结算文档.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\策划SVN\副本系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="675" windowWidth="38400" windowHeight="19665" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="675" windowWidth="38400" windowHeight="19665"/>
   </bookViews>
   <sheets>
     <sheet name="对局结算" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="备忘" sheetId="6" r:id="rId4"/>
     <sheet name="自用" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="187">
   <si>
     <t>掉落时机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,23 +821,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每支付一次金钱可以翻开一张卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.若验证有违规情况，则显示检测到异常数据后强制该账号下线，并记录该账号的异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.运营同事决定封号不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算时根据副本最后一对局玩家怪物剩余数量和目标达成度等评定，给予玩家额外的奖励，翻牌、开宝箱都行呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进本消耗1点疲劳值，副本成功结算时消耗(全部疲劳值-1)；副本失败时，副本失败结算时消耗（通过对局数/全部对局数*(全部疲劳值-1)）（向上取整）的疲劳值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每支付一次金钱可以翻开一张卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.若验证有违规情况，则显示检测到异常数据后强制该账号下线，并记录该账号的异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.运营同事决定封号不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本结算时根据副本最后一对局玩家怪物剩余数量和目标达成度等评定，给予玩家额外的奖励，翻牌、开宝箱都行呢</t>
+    <t>6.验证战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端服务器交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.服务器在副本开启时计算出掉落内容按对局发送给客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.副本结算时客户端发送回副本具体情况并告知服务端，添加数据库内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.验证则验证玩家战斗力情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +910,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,6 +938,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,9 +1074,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1052,6 +1081,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1077,13 +1118,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>523261</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>66201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3389,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W97"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView topLeftCell="C76" zoomScale="126" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="126" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3529,293 +3570,277 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="D18" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C16" s="28"/>
-      <c r="D16" s="28" t="s">
+    </row>
+    <row r="21" spans="3:21" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C17" s="28"/>
-      <c r="D17" s="28" t="s">
+    </row>
+    <row r="22" spans="3:21" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="23" spans="3:21" s="33" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="3:21" s="33" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="3:21" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="D21" s="28" t="s">
+    </row>
+    <row r="26" spans="3:21" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="D22" s="28" t="s">
+    </row>
+    <row r="27" spans="3:21" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="D23" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C25" s="4" t="s">
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C30" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="D26" s="3" t="s">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E27" s="2" t="s">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="E32" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E28" s="2" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E33" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E29" s="2" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="F30" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F35" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="F31" s="2" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F36" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="F32" s="2" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F33" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E34" s="2" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C36" s="4" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C41" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C37" s="4"/>
-      <c r="D37" s="1" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C42" s="4"/>
+      <c r="D42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D38" s="1"/>
-      <c r="E38" s="2" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D43" s="1"/>
+      <c r="E43" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D39" s="1" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D44" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E40" s="2" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E45" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="26" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D42" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D47" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E43" s="2" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F44" s="2" t="s">
+    <row r="49" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F45" s="2" t="s">
+    <row r="50" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="F50" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E46" s="3" t="s">
+    <row r="51" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.15">
       <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D52" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -3824,153 +3849,111 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
     </row>
     <row r="53" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
     </row>
     <row r="54" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
     </row>
     <row r="56" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D56" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="F56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
     </row>
     <row r="57" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E57" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="D57" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-    </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E60" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
     </row>
     <row r="61" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
+      <c r="D61" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="62" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="63" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="64" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D64" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3989,9 +3972,15 @@
       <c r="U64" s="3"/>
     </row>
     <row r="65" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E65" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="E65" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -4004,11 +3993,12 @@
       <c r="U65" s="3"/>
     </row>
     <row r="66" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="E66" s="2" t="s">
-        <v>120</v>
+      <c r="E66" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -4025,8 +4015,9 @@
     </row>
     <row r="67" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E67" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -4045,8 +4036,10 @@
     </row>
     <row r="68" spans="4:21" x14ac:dyDescent="0.15">
       <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4061,8 +4054,8 @@
       <c r="U68" s="3"/>
     </row>
     <row r="69" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D69" s="4" t="s">
-        <v>53</v>
+      <c r="D69" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4073,40 +4066,53 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
     </row>
     <row r="70" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D70" s="3"/>
-      <c r="E70" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="E70" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
     </row>
     <row r="71" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D71" s="3"/>
-      <c r="E71" s="4" t="s">
-        <v>92</v>
+      <c r="E71" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
     </row>
     <row r="72" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D72" s="3"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="3" t="s">
-        <v>25</v>
+      <c r="E72" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -4115,141 +4121,117 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
     </row>
     <row r="73" spans="4:21" x14ac:dyDescent="0.15">
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="4:21" ht="30" x14ac:dyDescent="0.15">
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+    </row>
+    <row r="74" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D74" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="4:21" x14ac:dyDescent="0.15">
       <c r="D75" s="3"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="F75" s="3"/>
-      <c r="G75" s="11">
-        <v>1</v>
-      </c>
-      <c r="H75" s="11">
-        <v>44</v>
-      </c>
-      <c r="I75" s="11">
-        <v>55</v>
-      </c>
-      <c r="J75" s="11">
-        <v>10</v>
-      </c>
-      <c r="K75" s="11">
-        <v>10</v>
-      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="4:21" x14ac:dyDescent="0.15">
       <c r="D76" s="3"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="F76" s="3"/>
-      <c r="G76" s="11">
-        <v>2</v>
-      </c>
-      <c r="H76" s="11">
-        <v>48</v>
-      </c>
-      <c r="I76" s="11">
-        <v>66</v>
-      </c>
-      <c r="J76" s="11">
-        <v>10</v>
-      </c>
-      <c r="K76" s="11">
-        <v>11</v>
-      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="4:21" x14ac:dyDescent="0.15">
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="11">
-        <v>3</v>
-      </c>
-      <c r="H77" s="11">
-        <v>52</v>
-      </c>
-      <c r="I77" s="11">
-        <v>77</v>
-      </c>
-      <c r="J77" s="11">
-        <v>10</v>
-      </c>
-      <c r="K77" s="11">
-        <v>12</v>
-      </c>
+      <c r="F77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="4:21" x14ac:dyDescent="0.15">
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="11">
-        <v>4</v>
-      </c>
-      <c r="H78" s="11">
-        <v>59</v>
-      </c>
-      <c r="I78" s="11">
-        <v>88</v>
-      </c>
-      <c r="J78" s="11">
-        <v>10</v>
-      </c>
-      <c r="K78" s="11">
-        <v>12</v>
-      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="4:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:21" ht="30" x14ac:dyDescent="0.15">
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="11">
-        <v>5</v>
-      </c>
-      <c r="H79" s="11">
-        <v>65</v>
-      </c>
-      <c r="I79" s="11">
-        <v>99</v>
-      </c>
-      <c r="J79" s="11">
-        <v>10</v>
-      </c>
-      <c r="K79" s="11">
-        <v>12</v>
+      <c r="G79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="M79" s="3"/>
     </row>
@@ -4258,368 +4240,473 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
       <c r="G80" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H80" s="11">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="I80" s="11">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J80" s="11">
         <v>10</v>
       </c>
       <c r="K80" s="11">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
+      <c r="G81" s="11">
+        <v>2</v>
+      </c>
+      <c r="H81" s="11">
+        <v>48</v>
+      </c>
+      <c r="I81" s="11">
+        <v>66</v>
+      </c>
+      <c r="J81" s="11">
+        <v>10</v>
+      </c>
+      <c r="K81" s="11">
+        <v>11</v>
+      </c>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="11">
+        <v>3</v>
+      </c>
+      <c r="H82" s="11">
+        <v>52</v>
+      </c>
+      <c r="I82" s="11">
+        <v>77</v>
+      </c>
+      <c r="J82" s="11">
+        <v>10</v>
+      </c>
+      <c r="K82" s="11">
+        <v>12</v>
+      </c>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="11">
+        <v>4</v>
+      </c>
+      <c r="H83" s="11">
+        <v>59</v>
+      </c>
+      <c r="I83" s="11">
+        <v>88</v>
+      </c>
+      <c r="J83" s="11">
+        <v>10</v>
+      </c>
+      <c r="K83" s="11">
+        <v>12</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="11">
+        <v>5</v>
+      </c>
+      <c r="H84" s="11">
+        <v>65</v>
+      </c>
+      <c r="I84" s="11">
+        <v>99</v>
+      </c>
+      <c r="J84" s="11">
+        <v>10</v>
+      </c>
+      <c r="K84" s="11">
+        <v>12</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="11">
+        <v>6</v>
+      </c>
+      <c r="H85" s="11">
+        <v>71</v>
+      </c>
+      <c r="I85" s="11">
+        <v>100</v>
+      </c>
+      <c r="J85" s="11">
+        <v>10</v>
+      </c>
+      <c r="K85" s="11">
+        <v>80</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="F83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="E85" s="4" t="s">
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="F88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E90" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="E86" s="2" t="s">
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E91" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M86" s="2" t="s">
+      <c r="M91" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="60" x14ac:dyDescent="0.15">
-      <c r="C87" s="2" t="s">
+    <row r="92" spans="3:17" ht="60" x14ac:dyDescent="0.15">
+      <c r="C92" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F92" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H92" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I92" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J92" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="13" t="s">
+      <c r="N92" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O87" s="13" t="s">
+      <c r="O92" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P87" s="13" t="s">
+      <c r="P92" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q87" s="13" t="s">
+      <c r="Q92" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="33" x14ac:dyDescent="0.15">
-      <c r="E88" s="14"/>
-      <c r="F88" s="17" t="s">
+    <row r="93" spans="3:17" ht="33" x14ac:dyDescent="0.15">
+      <c r="E93" s="14"/>
+      <c r="F93" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G93" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H93" s="19">
         <v>0.7</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I93" s="17">
         <v>0</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J93" s="17">
         <v>2</v>
       </c>
-      <c r="M88" s="14"/>
-      <c r="N88" s="16" t="s">
+      <c r="M93" s="14"/>
+      <c r="N93" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="O88" s="16" t="s">
+      <c r="O93" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P88" s="11">
+      <c r="P93" s="11">
         <v>1</v>
       </c>
-      <c r="Q88" s="11">
+      <c r="Q93" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="E89" s="14"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="17" t="s">
+    <row r="94" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E94" s="14"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H89" s="21">
+      <c r="H94" s="21">
         <v>0.8</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I94" s="17">
         <v>1</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J94" s="17">
         <v>10</v>
       </c>
-      <c r="M89" s="14"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16" t="s">
+      <c r="M94" s="14"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P89" s="11">
+      <c r="P94" s="11">
         <v>1</v>
       </c>
-      <c r="Q89" s="11">
+      <c r="Q94" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="33" x14ac:dyDescent="0.15">
-      <c r="E90" s="14"/>
-      <c r="F90" s="20" t="s">
+    <row r="95" spans="3:17" ht="33" x14ac:dyDescent="0.15">
+      <c r="E95" s="14"/>
+      <c r="F95" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G95" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H90" s="21">
+      <c r="H95" s="21">
         <v>1</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I95" s="17">
         <v>1</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J95" s="17">
         <v>2</v>
       </c>
-      <c r="M90" s="14"/>
-      <c r="N90" s="16" t="s">
+      <c r="M95" s="14"/>
+      <c r="N95" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="O90" s="16" t="s">
+      <c r="O95" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="P90" s="11">
+      <c r="P95" s="11">
         <v>1</v>
       </c>
-      <c r="Q90" s="11">
+      <c r="Q95" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="E91" s="14"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="17" t="s">
+    <row r="96" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E96" s="14"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H91" s="21">
+      <c r="H96" s="21">
         <v>0.2</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I96" s="17">
         <v>1</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J96" s="17">
         <v>5</v>
       </c>
-      <c r="M91" s="14"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16" t="s">
+      <c r="M96" s="14"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="P91" s="11">
+      <c r="P96" s="11">
         <v>1</v>
       </c>
-      <c r="Q91" s="11">
+      <c r="Q96" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="E92" s="14"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5" t="s">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="E97" s="14"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H92" s="24">
+      <c r="H97" s="24">
         <v>0.01</v>
       </c>
-      <c r="I92" s="5">
+      <c r="I97" s="5">
         <v>1</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J97" s="5">
         <v>1</v>
       </c>
-      <c r="M92" s="14"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16" t="s">
+      <c r="M97" s="14"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="P92" s="11">
+      <c r="P97" s="11">
         <v>2</v>
       </c>
-      <c r="Q92" s="11">
+      <c r="Q97" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="N93" s="16" t="s">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="N98" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="O93" s="5" t="s">
+      <c r="O98" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P93" s="5">
+      <c r="P98" s="5">
         <v>1</v>
       </c>
-      <c r="Q93" s="5">
+      <c r="Q98" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5" t="s">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="P94" s="5">
+      <c r="P99" s="5">
         <v>2</v>
       </c>
-      <c r="Q94" s="5">
+      <c r="Q99" s="5">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D95" s="4" t="s">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D100" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-    </row>
-    <row r="96" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="29" t="s">
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+    </row>
+    <row r="101" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E96" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F96" s="28"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="32"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="31"/>
-      <c r="O96" s="31"/>
-      <c r="P96" s="31"/>
-      <c r="Q96" s="31"/>
-      <c r="R96" s="31"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A97" s="26"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
+      <c r="E101" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F101" s="28"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="30"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="30"/>
+      <c r="R101" s="30"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A102" s="26"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4633,7 +4720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4793,18 +4880,18 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="D17" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="D17" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="26" t="s">
@@ -5026,7 +5113,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>167</v>
@@ -5137,10 +5224,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5173,6 +5260,11 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
